--- a/biology/Botanique/Jardin_botanique_de_Hambourg/Jardin_botanique_de_Hambourg.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Hambourg/Jardin_botanique_de_Hambourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardín botanique de Hambourg (Botanischer Garten Hamburg), connu également sous les noms de Loki-Schmidt-Garten, Botanischer Garten der Universität Hamburg et Biozentrum Klein Flottbek und Botanischer Garten, est un jardin botanique  allemand d'une superficie de 25 hectares, administré par l'université de Hambourg.
-Le code international d'identification du Botanischer Garten der Universität Hamburg en tant que membre du Botanic Gardens Conservation International (BGCI), de même que les sigles de son herbier est HBG[1].
+Le code international d'identification du Botanischer Garten der Universität Hamburg en tant que membre du Botanic Gardens Conservation International (BGCI), de même que les sigles de son herbier est HBG.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l’histoire institutionnelle du jardin retienne l'année 1821 comme point de départ de son établissement, et 1919 pour son transfert  à l'université de Hambourg, le jardin botanique actuel de Hambourg a été ouvert en 1979 dans son site actuel.
 Son ancien site subsiste toujours en tant qu'ancien jardin botanique de Hambourg (Alter Botanischer Garten Hamburg), qui abrite les serres du jardin ainsi que des collections d'herbes et plantes médicinales.
@@ -545,7 +559,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique est organisé en trois grandes sections :
 Jardin systématique (environ 3,5 hectares) - 90 plates-bandes de plantes organisées en fonction de leurs relations évolutives, telles que définies par Armen Takhtajan en 1959.
